--- a/Dox/Roman_Parsers.xlsx
+++ b/Dox/Roman_Parsers.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">ctime</t>
   </si>
@@ -39,6 +39,15 @@
   </si>
   <si>
     <t xml:space="preserve">Record.Key[ru_title]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ru_content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Record.Key[ru_content]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://joxi.ru/GrqM9N1fN4gMbr</t>
   </si>
   <si>
     <t xml:space="preserve">Актёры Идентификатор категории:</t>
@@ -57,7 +66,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -80,6 +89,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
@@ -145,7 +161,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -159,6 +175,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -179,17 +199,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.780612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.4030612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -216,7 +237,21 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" display="http://joxi.ru/GrqM9N1fN4gMbr"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -235,26 +270,26 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8826530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
+      <c r="A2" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -263,7 +298,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>

--- a/Dox/Roman_Parsers.xlsx
+++ b/Dox/Roman_Parsers.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t xml:space="preserve">ctime</t>
   </si>
@@ -32,22 +32,119 @@
     <t xml:space="preserve">category_identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Record.Key[category_identifier]</t>
+    <t xml:space="preserve">Records.Key[category_identifier]</t>
   </si>
   <si>
     <t xml:space="preserve">ru_title</t>
   </si>
   <si>
-    <t xml:space="preserve">Record.Key[ru_title]</t>
+    <t xml:space="preserve">Records.Key[ru_title]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ua_title</t>
   </si>
   <si>
     <t xml:space="preserve">ru_content</t>
   </si>
   <si>
-    <t xml:space="preserve">Record.Key[ru_content]</t>
+    <t xml:space="preserve">Records.Key[ru_content]</t>
   </si>
   <si>
     <t xml:space="preserve">http://joxi.ru/GrqM9N1fN4gMbr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en_content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ua_content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ru_city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Records.Key[ru_city]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://joxi.ru/n2Y8V4efjbgv0m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en_city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ua_city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ru_country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Records.Key[ru_country]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en_country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ua_country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ru_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Records.Key[ru_address]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ua_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Records.Key[email]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Records.Key[skype]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Records.Key[phone]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://joxi.ru/nAyzMjnSXgo6Nr
+http://joxi.ru/J2beaL6u40QN7m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ru_contacts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Records.Key[ru_contacts]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en_contacts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ua_contacts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ru_source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en_source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ua_source</t>
   </si>
   <si>
     <t xml:space="preserve">Актёры Идентификатор категории:</t>
@@ -66,7 +163,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -96,6 +193,13 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
@@ -161,7 +265,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -170,8 +274,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -179,6 +287,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -199,18 +311,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.4030612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.3469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -237,20 +348,173 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="http://joxi.ru/GrqM9N1fN4gMbr"/>
+    <hyperlink ref="C6" r:id="rId1" display="http://joxi.ru/GrqM9N1fN4gMbr"/>
+    <hyperlink ref="C9" r:id="rId2" display="http://joxi.ru/n2Y8V4efjbgv0m"/>
+    <hyperlink ref="C12" r:id="rId3" display="http://joxi.ru/n2Y8V4efjbgv0m"/>
+    <hyperlink ref="C15" r:id="rId4" display="http://joxi.ru/n2Y8V4efjbgv0m"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -275,21 +539,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.3061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.765306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
+      <c r="A1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
+      <c r="A2" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Dox/Roman_Parsers.xlsx
+++ b/Dox/Roman_Parsers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Fields" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t xml:space="preserve">ctime</t>
   </si>
@@ -65,9 +65,6 @@
     <t xml:space="preserve">ru_city</t>
   </si>
   <si>
-    <t xml:space="preserve">Records.Key[ru_city]</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://joxi.ru/n2Y8V4efjbgv0m</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
   </si>
   <si>
     <t xml:space="preserve">ru_country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Records.Key[ru_country]</t>
   </si>
   <si>
     <t xml:space="preserve">en_country</t>
@@ -314,14 +308,15 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.7602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -381,132 +376,126 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -539,20 +528,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.765306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Dox/Roman_Parsers.xlsx
+++ b/Dox/Roman_Parsers.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t xml:space="preserve">ctime</t>
   </si>
@@ -44,9 +44,15 @@
     <t xml:space="preserve">en_title</t>
   </si>
   <si>
+    <t xml:space="preserve">Records.Key[en_title]</t>
+  </si>
+  <si>
     <t xml:space="preserve">ua_title</t>
   </si>
   <si>
+    <t xml:space="preserve">Records.Key[ua_title]</t>
+  </si>
+  <si>
     <t xml:space="preserve">ru_content</t>
   </si>
   <si>
@@ -59,9 +65,15 @@
     <t xml:space="preserve">en_content</t>
   </si>
   <si>
+    <t xml:space="preserve">Records.Key[en_content]</t>
+  </si>
+  <si>
     <t xml:space="preserve">ua_content</t>
   </si>
   <si>
+    <t xml:space="preserve">Records.Key[ua_content]</t>
+  </si>
+  <si>
     <t xml:space="preserve">ru_city</t>
   </si>
   <si>
@@ -77,12 +89,21 @@
     <t xml:space="preserve">ru_country</t>
   </si>
   <si>
+    <t xml:space="preserve">Records.Key[ru_country]</t>
+  </si>
+  <si>
     <t xml:space="preserve">en_country</t>
   </si>
   <si>
+    <t xml:space="preserve">Records.Key[en_country]</t>
+  </si>
+  <si>
     <t xml:space="preserve">ua_country</t>
   </si>
   <si>
+    <t xml:space="preserve">Records.Key[ua_country]</t>
+  </si>
+  <si>
     <t xml:space="preserve">ru_address</t>
   </si>
   <si>
@@ -92,9 +113,15 @@
     <t xml:space="preserve">en_address</t>
   </si>
   <si>
+    <t xml:space="preserve">Records.Key[en_address]</t>
+  </si>
+  <si>
     <t xml:space="preserve">ua_address</t>
   </si>
   <si>
+    <t xml:space="preserve">Records.Key[ua_address]</t>
+  </si>
+  <si>
     <t xml:space="preserve">email</t>
   </si>
   <si>
@@ -114,6 +141,9 @@
   </si>
   <si>
     <t xml:space="preserve">site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Records.Key[site]</t>
   </si>
   <si>
     <t xml:space="preserve">http://joxi.ru/nAyzMjnSXgo6Nr
@@ -123,9 +153,6 @@
     <t xml:space="preserve">ru_contacts</t>
   </si>
   <si>
-    <t xml:space="preserve">Records.Key[ru_contacts]</t>
-  </si>
-  <si>
     <t xml:space="preserve">en_contacts</t>
   </si>
   <si>
@@ -133,6 +160,9 @@
   </si>
   <si>
     <t xml:space="preserve">ru_source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link.Link</t>
   </si>
   <si>
     <t xml:space="preserve">en_source</t>
@@ -259,17 +289,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -308,22 +342,22 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.7295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.7602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.3214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.2908163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -331,7 +365,7 @@
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -339,7 +373,7 @@
       <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -347,155 +381,194 @@
       <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>15</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>27</v>
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>37</v>
+        <v>47</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -528,21 +601,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>40</v>
+      <c r="A1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>41</v>
+      <c r="A2" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Dox/Roman_Parsers.xlsx
+++ b/Dox/Roman_Parsers.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Fields" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="wiki" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="wiki" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Fields" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,1333 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="491">
+  <si>
+    <t xml:space="preserve">Актёры </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%90%D0%BA%D1%82%D1%91%D1%80%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Актрисы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actresses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%90%D0%BA%D1%82%D1%80%D0%B8%D1%81%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фильмы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Films</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/w/index.php?title=%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A4%D0%B8%D0%BB%D1%8C%D0%BC%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83&amp;from=%D0%90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Телефильмы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Movies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A2%D0%B5%D0%BB%D0%B5%D1%84%D0%B8%D0%BB%D1%8C%D0%BC%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Телесериалы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Serials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/w/index.php?title=%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A2%D0%B5%D0%BB%D0%B5%D1%81%D0%B5%D1%80%D0%B8%D0%B0%D0%BB%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83&amp;from=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мультфильмы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cartoons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9C%D1%83%D0%BB%D1%8C%D1%82%D1%84%D0%B8%D0%BB%D1%8C%D0%BC%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мультсериалы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animated Series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9C%D1%83%D0%BB%D1%8C%D1%82%D1%81%D0%B5%D1%80%D0%B8%D0%B0%D0%BB%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Телеканалы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Channels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A2%D0%B5%D0%BB%D0%B5%D0%BA%D0%B0%D0%BD%D0%B0%D0%BB%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кинокомпании </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movie Companies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9A%D0%B8%D0%BD%D0%BE%D0%BA%D0%BE%D0%BC%D0%BF%D0%B0%D0%BD%D0%B8%D0%B8_%D0%BF%D0%BE_%D1%81%D1%82%D1%80%D0%B0%D0%BD%D0%B0%D0%BC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мультипликационные студии </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animation Studios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9C%D1%83%D0%BB%D1%8C%D1%82%D0%B8%D0%BF%D0%BB%D0%B8%D0%BA%D0%B0%D1%86%D0%B8%D0%BE%D0%BD%D0%BD%D1%8B%D0%B5_%D1%81%D1%82%D1%83%D0%B4%D0%B8%D0%B8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Телепередачи </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Shows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/w/index.php?title=%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A2%D0%B5%D0%BB%D0%B5%D0%BF%D0%B5%D1%80%D0%B5%D0%B4%D0%B0%D1%87%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83&amp;from=%D0%93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Телеведущие </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Presenters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A2%D0%B5%D0%BB%D0%B5%D0%B2%D0%B5%D0%B4%D1%83%D1%89%D0%B8%D0%B5_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Певцы и певицы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/w/index.php?title=%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9F%D0%B5%D0%B2%D1%86%D1%8B_%D0%B8_%D0%BF%D0%B5%D0%B2%D0%B8%D1%86%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83&amp;from=%D0%96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Музыканты </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musicians</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9C%D1%83%D0%B7%D1%8B%D0%BA%D0%B0%D0%BD%D1%82%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Музыкальные коллективы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musical Groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9C%D1%83%D0%B7%D1%8B%D0%BA%D0%B0%D0%BB%D1%8C%D0%BD%D1%8B%D0%B5_%D0%BA%D0%BE%D0%BB%D0%BB%D0%B5%D0%BA%D1%82%D0%B8%D0%B2%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Продюссеры </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Producers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9C%D1%83%D0%B7%D1%8B%D0%BA%D0%B0%D0%BB%D1%8C%D0%BD%D1%8B%D0%B5_%D0%BF%D1%80%D0%BE%D0%B4%D1%8E%D1%81%D0%B5%D1%80%D1%8B_%D0%BF%D0%BE_%D1%81%D1%82%D1%80%D0%B0%D0%BD%D0%B0%D0%BC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Диджеи </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%94%D0%B8%D0%B4%D0%B6%D0%B5%D0%B8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Радиостанции </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radiostantsiya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A0%D0%B0%D0%B4%D0%B8%D0%BE%D1%81%D1%82%D0%B0%D0%BD%D1%86%D0%B8%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Радиоведущие </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radio Host</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A0%D0%B0%D0%B4%D0%B8%D0%BE%D0%B2%D0%B5%D0%B4%D1%83%D1%89%D0%B8%D0%B5_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Песни </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Songs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/w/index.php?title=%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9F%D0%B5%D1%81%D0%BD%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83&amp;from=%D0%9A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Музыкальные инструменты </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musical Instruments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9C%D1%83%D0%B7%D1%8B%D0%BA%D0%B0%D0%BB%D1%8C%D0%BD%D1%8B%D0%B5_%D0%B8%D0%BD%D1%81%D1%82%D1%80%D1%83%D0%BC%D0%B5%D0%BD%D1%82%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Марки автомобилей </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car Brands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%A1%D0%BF%D0%B8%D1%81%D0%BE%D0%BA_%D0%BC%D0%B0%D1%80%D0%BE%D0%BA_%D0%B0%D0%B2%D1%82%D0%BE%D0%BC%D0%BE%D0%B1%D0%B8%D0%BB%D0%B5%D0%B9#.D0.93.D0.B5.D1.80.D0.BC.D0.B0.D0.BD.D0.B8.D1.8F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автомобили </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Cars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%90%D0%B2%D1%82%D0%BE%D0%BC%D0%BE%D0%B1%D0%B8%D0%BB%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бронеавтомобили </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armored Cars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%91%D1%80%D0%BE%D0%BD%D0%B5%D0%B0%D0%B2%D1%82%D0%BE%D0%BC%D0%BE%D0%B1%D0%B8%D0%BB%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автобусы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%90%D0%B2%D1%82%D0%BE%D0%B1%D1%83%D1%81%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Виды спорта </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinds of Sports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%92%D0%B8%D0%B4%D1%8B_%D1%81%D0%BF%D0%BE%D1%80%D1%82%D0%B0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спортивные федерации </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports Federations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A1%D0%BF%D0%BE%D1%80%D1%82%D0%B8%D0%B2%D0%BD%D1%8B%D0%B5_%D1%84%D0%B5%D0%B4%D0%B5%D1%80%D0%B0%D1%86%D0%B8%D0%B8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чемпионаты </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championships</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A4%D1%83%D1%82%D0%B1%D0%BE%D0%BB%D1%8C%D0%BD%D1%8B%D0%B5_%D1%87%D0%B5%D0%BC%D0%BF%D0%B8%D0%BE%D0%BD%D0%B0%D1%82%D1%8B_%D0%BF%D0%BE_%D1%81%D1%82%D1%80%D0%B0%D0%BD%D0%B0%D0%BC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футбольные клубы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Football Clubs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A4%D1%83%D1%82%D0%B1%D0%BE%D0%BB%D1%8C%D0%BD%D1%8B%D0%B5_%D0%BA%D0%BB%D1%83%D0%B1%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футбольные стадионы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Football Stadiums</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A4%D1%83%D1%82%D0%B1%D0%BE%D0%BB%D1%8C%D0%BD%D1%8B%D0%B5_%D1%81%D1%82%D0%B0%D0%B4%D0%B8%D0%BE%D0%BD%D1%8B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболисты </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Footballers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A4%D1%83%D1%82%D0%B1%D0%BE%D0%BB%D0%B8%D1%81%D1%82%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хоккейные клубы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hockey Clubs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A5%D0%BE%D0%BA%D0%BA%D0%B5%D0%B9%D0%BD%D1%8B%D0%B5_%D0%BA%D0%BB%D1%83%D0%B1%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хоккеисты </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hockey Players</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A5%D0%BE%D0%BA%D0%BA%D0%B5%D0%B8%D1%81%D1%82%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Баскетбольные клубы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basketball Clubs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%91%D0%B0%D1%81%D0%BA%D0%B5%D1%82%D0%B1%D0%BE%D0%BB%D1%8C%D0%BD%D1%8B%D0%B5_%D0%BA%D0%BB%D1%83%D0%B1%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Баскетболисты </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basketball Players</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%91%D0%B0%D1%81%D0%BA%D0%B5%D1%82%D0%B1%D0%BE%D0%BB%D0%B8%D1%81%D1%82%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Регбийные клубы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rugby Clubs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A0%D0%B5%D0%B3%D0%B1%D0%B8%D0%B9%D0%BD%D1%8B%D0%B5_%D0%BA%D0%BB%D1%83%D0%B1%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Регбисты </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rugby Players</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A0%D0%B5%D0%B3%D0%B1%D0%B8%D1%81%D1%82%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Волейбольные кубы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volleyball Clubs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%92%D0%BE%D0%BB%D0%B5%D0%B9%D0%B1%D0%BE%D0%BB%D1%8C%D0%BD%D1%8B%D0%B5_%D0%BA%D0%BB%D1%83%D0%B1%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Волейболисты </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volleyball Players</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%92%D0%BE%D0%BB%D0%B5%D0%B9%D0%B1%D0%BE%D0%BB%D0%B8%D1%81%D1%82%D1%8B_%D0%BF%D0%BE_%D1%81%D1%82%D1%80%D0%B0%D0%BD%D0%B0%D0%BC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теннисисты </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tennis Players</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A2%D0%B5%D0%BD%D0%BD%D0%B8%D1%81%D0%B8%D1%81%D1%82%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фигуристы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skaters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A4%D0%B8%D0%B3%D1%83%D1%80%D0%B8%D1%81%D1%82%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бейсболисты </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baseball Players</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%91%D0%B5%D0%B9%D1%81%D0%B1%D0%BE%D0%BB%D0%B8%D1%81%D1%82%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Биатлонисты </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biathlonists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%91%D0%B8%D0%B0%D1%82%D0%BB%D0%BE%D0%BD%D0%B8%D1%81%D1%82%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лыжники </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9B%D1%8B%D0%B6%D0%BD%D0%B8%D0%BA%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автогонщики </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Race Car Drivers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/w/index.php?title=%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%90%D0%B2%D1%82%D0%BE%D0%B3%D0%BE%D0%BD%D1%89%D0%B8%D0%BA%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83&amp;from=%D0%A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мотогонщики </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motorcycle Racers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9C%D0%BE%D1%82%D0%BE%D0%B3%D0%BE%D0%BD%D1%89%D0%B8%D0%BA%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Боксёры </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boxers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%91%D0%BE%D0%BA%D1%81%D1%91%D1%80%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мастера боевых искусств </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martial Arts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9C%D0%B0%D1%81%D1%82%D0%B5%D1%80%D0%B0_%D0%B1%D0%BE%D0%B5%D0%B2%D1%8B%D1%85_%D0%B8%D1%81%D0%BA%D1%83%D1%81%D1%81%D1%82%D0%B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Велогонщики </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyclists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%92%D0%B5%D0%BB%D0%BE%D0%B3%D0%BE%D0%BD%D1%89%D0%B8%D0%BA%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пловцы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swimmers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9F%D0%BB%D0%BE%D0%B2%D1%86%D1%8B_%D0%BF%D0%BE_%D1%81%D1%82%D1%80%D0%B0%D0%BD%D0%B0%D0%BC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Легкоатлеты </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athletes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9B%D0%B5%D0%B3%D0%BA%D0%BE%D0%B0%D1%82%D0%BB%D0%B5%D1%82%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Музеи </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Museums</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9C%D1%83%D0%B7%D0%B5%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цирки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circuses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A6%D0%B8%D1%80%D0%BA%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Галереи </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galleries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%93%D0%B0%D0%BB%D0%B5%D1%80%D0%B5%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Театры </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theaters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A2%D0%B5%D0%B0%D1%82%D1%80%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Консерватории </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conservatory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9A%D0%BE%D0%BD%D1%81%D0%B5%D1%80%D0%B2%D0%B0%D1%82%D0%BE%D1%80%D0%B8%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Библиотеки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libraries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%91%D0%B8%D0%B1%D0%BB%D0%B8%D0%BE%D1%82%D0%B5%D0%BA%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Художники </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A5%D1%83%D0%B4%D0%BE%D0%B6%D0%BD%D0%B8%D0%BA%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Писатели </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Writers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9F%D0%B8%D1%81%D0%B0%D1%82%D0%B5%D0%BB%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поэты </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9F%D0%BE%D1%8D%D1%82%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Скульпторы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sculptors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A1%D0%BA%D1%83%D0%BB%D1%8C%D0%BF%D1%82%D0%BE%D1%80%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Памятники </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monuments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9F%D0%B0%D0%BC%D1%8F%D1%82%D0%BD%D0%B8%D0%BA%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Персонажи </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9F%D0%B5%D1%80%D1%81%D0%BE%D0%BD%D0%B0%D0%B6%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Картины </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paintings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9A%D0%B0%D1%80%D1%82%D0%B8%D0%BD%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монастыри и Храмы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monasteries and Temples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9A%D1%83%D0%BB%D1%8C%D1%82%D0%BE%D0%B2%D1%8B%D0%B5_%D1%81%D0%BE%D0%BE%D1%80%D1%83%D0%B6%D0%B5%D0%BD%D0%B8%D1%8F_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Учёные </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scientists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A3%D1%87%D1%91%D0%BD%D1%8B%D0%B5_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Населённые пункты </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settlements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9D%D0%B0%D1%81%D0%B5%D0%BB%D1%91%D0%BD%D0%BD%D1%8B%D0%B5_%D0%BF%D1%83%D0%BD%D0%BA%D1%82%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Улицы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A3%D0%BB%D0%B8%D1%86%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Социальные сети </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A1%D0%BE%D1%86%D0%B8%D0%B0%D0%BB%D1%8C%D0%BD%D1%8B%D0%B5_%D1%81%D0%B5%D1%82%D0%B8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Боги </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/w/index.php?title=%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%91%D0%BE%D0%B3%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83&amp;from=%D0%98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Религии </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Religions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%A1%D0%BF%D0%B8%D1%81%D0%BE%D0%BA_%D1%80%D0%B5%D0%BB%D0%B8%D0%B3%D0%B8%D0%B9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Священники </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clergy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A1%D0%B2%D1%8F%D1%89%D0%B5%D0%BD%D0%BD%D0%B8%D0%BA%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Институты </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%98%D0%BD%D1%81%D1%82%D0%B8%D1%82%D1%83%D1%82%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Колледжи </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colleges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9A%D0%BE%D0%BB%D0%BB%D0%B5%D0%B4%D0%B6%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Адвокаты </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advocates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%90%D0%B4%D0%B2%D0%BE%D0%BA%D0%B0%D1%82%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Юристы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawyers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%AE%D1%80%D0%B8%D1%81%D1%82%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мужские имена </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Men Names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9C%D1%83%D0%B6%D1%81%D0%BA%D0%B8%D0%B5_%D0%B8%D0%BC%D0%B5%D0%BD%D0%B0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Женские имена </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female Names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%96%D0%B5%D0%BD%D1%81%D0%BA%D0%B8%D0%B5_%D0%B8%D0%BC%D0%B5%D0%BD%D0%B0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Профессии </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9F%D1%80%D0%BE%D1%84%D0%B5%D1%81%D1%81%D0%B8%D0%B8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Всемирное наследие </t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Heritage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%92%D1%81%D0%B5%D0%BC%D0%B8%D1%80%D0%BD%D0%BE%D0%B5_%D0%BD%D0%B0%D1%81%D0%BB%D0%B5%D0%B4%D0%B8%D0%B5_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лекарственные средства </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9B%D0%B5%D0%BA%D0%B0%D1%80%D1%81%D1%82%D0%B2%D0%B5%D0%BD%D0%BD%D1%8B%D0%B5_%D1%81%D1%80%D0%B5%D0%B4%D1%81%D1%82%D0%B2%D0%B0_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Больницы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospitals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%91%D0%BE%D0%BB%D1%8C%D0%BD%D0%B8%D1%86%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заболевания </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%97%D0%B0%D0%B1%D0%BE%D0%BB%D0%B5%D0%B2%D0%B0%D0%BD%D0%B8%D1%8F_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Синдромы и симптомы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syndromes and Symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A1%D0%B8%D0%BD%D0%B4%D1%80%D0%BE%D0%BC%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A1%D0%B8%D0%BC%D0%BF%D1%82%D0%BE%D0%BC%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Врачи </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doctors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%92%D1%80%D0%B0%D1%87%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Страны </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%90%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D0%BD%D1%8B%D0%B9_%D1%81%D0%BF%D0%B8%D1%81%D0%BE%D0%BA_%D1%81%D1%82%D1%80%D0%B0%D0%BD_%D0%B8_%D1%82%D0%B5%D1%80%D1%80%D0%B8%D1%82%D0%BE%D1%80%D0%B8%D0%B9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Субъекты Российской Федерации </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subjects of Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%A1%D1%83%D0%B1%D1%8A%D0%B5%D0%BA%D1%82%D1%8B_%D0%A0%D0%BE%D1%81%D1%81%D0%B8%D0%B9%D1%81%D0%BA%D0%BE%D0%B9_%D0%A4%D0%B5%D0%B4%D0%B5%D1%80%D0%B0%D1%86%D0%B8%D0%B8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Президенты </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presidents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9F%D1%80%D0%B5%D0%B7%D0%B8%D0%B4%D0%B5%D0%BD%D1%82%D1%8B_%D0%BF%D0%BE_%D1%81%D1%82%D1%80%D0%B0%D0%BD%D0%B0%D0%BC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Политики </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Politicians</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9F%D0%BE%D0%BB%D0%B8%D1%82%D0%B8%D0%BA%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Политические партии </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Political Parties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9F%D0%BE%D0%BB%D0%B8%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B8%D0%B5_%D0%BF%D0%B0%D1%80%D1%82%D0%B8%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Главы субъектов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heads of Entities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%A1%D0%BF%D0%B8%D1%81%D0%BE%D0%BA_%D0%B3%D0%BB%D0%B0%D0%B2_%D1%81%D1%83%D0%B1%D1%8A%D0%B5%D0%BA%D1%82%D0%BE%D0%B2_%D0%A0%D0%BE%D1%81%D1%81%D0%B8%D0%B9%D1%81%D0%BA%D0%BE%D0%B9_%D0%A4%D0%B5%D0%B4%D0%B5%D1%80%D0%B0%D1%86%D0%B8%D0%B8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Суды </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Courts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A1%D1%83%D0%B4%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гербы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coats of Arms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%93%D0%B5%D1%80%D0%B1%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Флаги </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A4%D0%BB%D0%B0%D0%B3%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Награды </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rewards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9D%D0%B0%D0%B3%D1%80%D0%B0%D0%B4%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Договоры </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agreements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%94%D0%BE%D0%B3%D0%BE%D0%B2%D0%BE%D1%80%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оружие </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9E%D1%80%D1%83%D0%B6%D0%B8%D0%B5_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Военная техника </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Military Equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A1%D0%BF%D0%B8%D1%81%D0%BA%D0%B8_%D0%B2%D0%BE%D0%B5%D0%BD%D0%BD%D0%BE%D0%B9_%D1%82%D0%B5%D1%85%D0%BD%D0%B8%D0%BA%D0%B8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сражения </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A1%D1%80%D0%B0%D0%B6%D0%B5%D0%BD%D0%B8%D1%8F_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Порталы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9F%D0%BE%D1%80%D1%82%D0%B0%D0%BB%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Настольные игры </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Board Games</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/w/index.php?title=%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9D%D0%B0%D1%81%D1%82%D0%BE%D0%BB%D1%8C%D0%BD%D1%8B%D0%B5_%D0%B8%D0%B3%D1%80%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83&amp;pageuntil=%D0%A8%D0%B0%D1%85%D0%BC%D0%B0%D1%82%D1%8B+%D0%9B%D0%BE%D1%81-%D0%90%D0%BB%D0%B0%D0%BC%D0%BE%D1%81#mw-pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компьютерные игры </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Games</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9A%D0%BE%D0%BC%D0%BF%D1%8C%D1%8E%D1%82%D0%B5%D1%80%D0%BD%D1%8B%D0%B5_%D0%B8%D0%B3%D1%80%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Суда и корабли </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boats and Ships</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A1%D1%83%D0%B4%D0%B0_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Праздники </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holidays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9F%D1%80%D0%B0%D0%B7%D0%B4%D0%BD%D0%B8%D0%BA%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорты </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%90%D1%8D%D1%80%D0%BE%D0%BF%D0%BE%D1%80%D1%82%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Авиакомпании </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airlines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%90%D0%B2%D0%B8%D0%B0%D0%BA%D0%BE%D0%BC%D0%BF%D0%B0%D0%BD%D0%B8%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Газеты </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newspapers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%93%D0%B0%D0%B7%D0%B5%D1%82%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Книги </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Books</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9A%D0%BD%D0%B8%D0%B3%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Журналы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magazines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%96%D1%83%D1%80%D0%BD%D0%B0%D0%BB%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Комиксы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9A%D0%BE%D0%BC%D0%B8%D0%BA%D1%81%D1%8B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Интернет магазины </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online Stores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%98%D0%BD%D1%82%D0%B5%D1%80%D0%BD%D0%B5%D1%82-%D0%BC%D0%B0%D0%B3%D0%B0%D0%B7%D0%B8%D0%BD%D1%8B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Операторы сотовой связи </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile Operators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%A1%D0%BF%D0%B8%D1%81%D0%BE%D0%BA_%D0%BE%D0%BF%D0%B5%D1%80%D0%B0%D1%82%D0%BE%D1%80%D0%BE%D0%B2_%D1%81%D0%BE%D1%82%D0%BE%D0%B2%D0%BE%D0%B9_%D1%81%D0%B2%D1%8F%D0%B7%D0%B8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сотовые телефоны </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell Phones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A1%D0%BE%D1%82%D0%BE%D0%B2%D1%8B%D0%B5_%D1%82%D0%B5%D0%BB%D0%B5%D1%84%D0%BE%D0%BD%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компании </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Companies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9A%D0%BE%D0%BC%D0%BF%D0%B0%D0%BD%D0%B8%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Торговые сети </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trade Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A2%D0%BE%D1%80%D0%B3%D0%BE%D0%B2%D1%8B%D0%B5_%D1%81%D0%B5%D1%82%D0%B8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Банки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%91%D0%B0%D0%BD%D0%BA%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фондовые биржи </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock Exchanges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%A1%D0%BF%D0%B8%D1%81%D0%BE%D0%BA_%D1%84%D0%BE%D0%BD%D0%B4%D0%BE%D0%B2%D1%8B%D1%85_%D0%B1%D0%B8%D1%80%D0%B6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Валюты </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%A1%D0%BF%D0%B8%D1%81%D0%BE%D0%BA_%D0%B7%D0%BD%D0%B0%D0%BA%D0%BE%D0%B2_%D0%B2%D0%B0%D0%BB%D1%8E%D1%82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монеты </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9C%D0%BE%D0%BD%D0%B5%D1%82%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оборудование </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9E%D0%B1%D0%BE%D1%80%D1%83%D0%B4%D0%BE%D0%B2%D0%B0%D0%BD%D0%B8%D0%B5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поисковые системы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search Engines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9F%D0%BE%D0%B8%D1%81%D0%BA%D0%BE%D0%B2%D1%8B%D0%B5_%D1%81%D0%B8%D1%81%D1%82%D0%B5%D0%BC%D1%8B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Программы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9F%D1%80%D0%BE%D0%B3%D1%80%D0%B0%D0%BC%D0%BC%D0%BD%D0%BE%D0%B5_%D0%BE%D0%B1%D0%B5%D1%81%D0%BF%D0%B5%D1%87%D0%B5%D0%BD%D0%B8%D0%B5_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Домены </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%A1%D0%BF%D0%B8%D1%81%D0%BE%D0%BA_%D0%B4%D0%BE%D0%BC%D0%B5%D0%BD%D0%BE%D0%B2_%D0%B2%D0%B5%D1%80%D1%85%D0%BD%D0%B5%D0%B3%D0%BE_%D1%83%D1%80%D0%BE%D0%B2%D0%BD%D1%8F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A1%D0%B0%D0%B9%D1%82%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дизайнеры </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%94%D0%B8%D0%B7%D0%B0%D0%B9%D0%BD%D0%B5%D1%80%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Архитекторы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Architects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%90%D1%80%D1%85%D0%B8%D1%82%D0%B5%D0%BA%D1%82%D0%BE%D1%80%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Звёзды </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%97%D0%B2%D1%91%D0%B7%D0%B4%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rivers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A0%D0%B5%D0%BA%D0%B8_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Озёра </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9E%D0%B7%D1%91%D1%80%D0%B0_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заливы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%97%D0%B0%D0%BB%D0%B8%D0%B2%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Острова </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9E%D1%81%D1%82%D1%80%D0%BE%D0%B2%D0%B0_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моря </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9C%D0%BE%D1%80%D1%8F_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Химические элементы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemical Elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%A1%D0%BF%D0%B8%D1%81%D0%BE%D0%BA_%D1%85%D0%B8%D0%BC%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B8%D1%85_%D1%8D%D0%BB%D0%B5%D0%BC%D0%B5%D0%BD%D1%82%D0%BE%D0%B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Блюда </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dishes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%91%D0%BB%D1%8E%D0%B4%D0%B0_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Напитки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beverages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9D%D0%B0%D0%BF%D0%B8%D1%82%D0%BA%D0%B8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Животные </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%96%D0%B8%D0%B2%D0%BE%D1%82%D0%BD%D1%8B%D0%B5_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Птицы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A1%D0%BF%D0%B8%D1%81%D0%BA%D0%B8_%D0%BF%D1%82%D0%B8%D1%86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Деревья </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%94%D0%B5%D1%80%D0%B5%D0%B2%D1%8C%D1%8F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Растения </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A0%D0%B0%D1%81%D1%82%D0%B5%D0%BD%D0%B8%D1%8F_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фрукты </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A4%D1%80%D1%83%D0%BA%D1%82%D1%8B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Овощи </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vegetables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9E%D0%B2%D0%BE%D1%89%D0%B8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рыбы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fishes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A0%D1%8B%D0%B1%D1%8B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Леса </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9B%D0%B5%D1%81%D0%BD%D1%8B%D0%B5_%D0%BC%D0%B0%D1%81%D1%81%D0%B8%D0%B2%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Насекомые </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9D%D0%B0%D1%81%D0%B5%D0%BA%D0%BE%D0%BC%D1%8B%D0%B5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Породы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9F%D0%BE%D1%80%D0%BE%D0%B4%D1%8B_%D1%81%D0%BE%D0%B1%D0%B0%D0%BA_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9F%D0%BE%D1%80%D0%BE%D0%B4%D1%8B_%D0%BA%D0%BE%D1%88%D0%B5%D0%BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%A1%D0%BF%D0%B8%D1%81%D0%BE%D0%BA_%D0%BF%D0%BE%D1%80%D0%BE%D0%B4_%D0%BB%D0%BE%D1%88%D0%B0%D0%B4%D0%B5%D0%B9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Модельеры </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fashion Designers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%9C%D0%BE%D0%B4%D0%B5%D0%BB%D1%8C%D0%B5%D1%80%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фотографы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photographers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A4%D0%BE%D1%82%D0%BE%D0%B3%D1%80%D0%B0%D1%84%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83 </t>
+  </si>
   <si>
     <t xml:space="preserve">ctime</t>
   </si>
@@ -169,15 +1495,6 @@
   </si>
   <si>
     <t xml:space="preserve">ua_source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Актёры Идентификатор категории:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%90%D0%BA%D1%82%D1%91%D1%80%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83</t>
   </si>
 </sst>
 </file>
@@ -187,7 +1504,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -214,6 +1531,19 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -222,26 +1552,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Liberation Serif;Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Liberation Serif;Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -289,37 +1599,33 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -339,236 +1645,1921 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C150"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C141" activeCellId="0" sqref="C141"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="28.35"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="168.066326530612"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C143" r:id="rId1" display="https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A0%D1%8B%D0%B1%D1%8B"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.3214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>442</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>444</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>446</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>448</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>450</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>452</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>455</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3"/>
+        <v>457</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>459</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="B11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>463</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>465</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>467</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>469</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>471</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>473</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>475</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>477</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>479</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>41</v>
+      <c r="A21" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>42</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="B22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>43</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="B23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>44</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="B24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>487</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>46</v>
+        <v>489</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>490</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -586,48 +3577,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.8214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%90%D0%BA%D1%82%D1%91%D1%80%D1%8B_%D0%BF%D0%BE_%D0%B0%D0%BB%D1%84%D0%B0%D0%B2%D0%B8%D1%82%D1%83"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Dox/Roman_Parsers.xlsx
+++ b/Dox/Roman_Parsers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wiki" sheetId="1" state="visible" r:id="rId2"/>
@@ -1466,7 +1466,7 @@
     <t xml:space="preserve">Records.Key[phone]</t>
   </si>
   <si>
-    <t xml:space="preserve">site</t>
+    <t xml:space="preserve">site_url</t>
   </si>
   <si>
     <t xml:space="preserve">Records.Key[site]</t>
@@ -1647,15 +1647,16 @@
   </sheetPr>
   <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C141" activeCellId="0" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="168.066326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="166.173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3329,16 +3330,16 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3509,7 +3510,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="31.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>481</v>
       </c>

--- a/Dox/Roman_Parsers.xlsx
+++ b/Dox/Roman_Parsers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wiki" sheetId="1" state="visible" r:id="rId2"/>
@@ -1557,12 +1557,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC00"/>
+        <bgColor rgb="FF008000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1599,7 +1605,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1620,6 +1626,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1637,6 +1647,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00CC00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1653,10 +1723,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="166.173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="164.285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3328,7 +3398,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
@@ -3336,10 +3406,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6785714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3349,6 +3420,7 @@
       <c r="B1" s="4" t="s">
         <v>443</v>
       </c>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -3365,6 +3437,7 @@
       <c r="B3" s="4" t="s">
         <v>447</v>
       </c>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -3373,6 +3446,7 @@
       <c r="B4" s="4" t="s">
         <v>449</v>
       </c>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -3389,7 +3463,7 @@
       <c r="B6" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>454</v>
       </c>
     </row>
@@ -3400,7 +3474,7 @@
       <c r="B7" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -3409,16 +3483,17 @@
       <c r="B8" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>459</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>460</v>
       </c>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -3439,9 +3514,10 @@
       <c r="B12" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>460</v>
       </c>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -3466,7 +3542,7 @@
       <c r="B15" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>460</v>
       </c>
     </row>
@@ -3517,7 +3593,7 @@
       <c r="B21" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>483</v>
       </c>
     </row>

--- a/Dox/Roman_Parsers.xlsx
+++ b/Dox/Roman_Parsers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="wiki" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="494">
+  <si>
+    <t xml:space="preserve">выполнено</t>
+  </si>
+  <si>
+    <t xml:space="preserve">всего</t>
+  </si>
+  <si>
+    <t xml:space="preserve">завершено</t>
+  </si>
   <si>
     <t xml:space="preserve">Актёры </t>
   </si>
@@ -1557,26 +1566,27 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CC00"/>
-        <bgColor rgb="FF008000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -1605,9 +1615,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1624,10 +1650,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1647,66 +1669,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00CC00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1715,1673 +1677,1842 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C150"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C141" activeCellId="0" sqref="C141"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="28.35"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="164.285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="1" t="n">
+        <v>22347</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>22347</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="D3" s="1" t="n">
+        <v>20228</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>20229</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D4" s="1" t="n">
+        <v>53156</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>53158</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="D5" s="1" t="n">
+        <v>1018</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>1018</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="D6" s="1" t="n">
+        <v>5532</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>5532</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="D7" s="1" t="n">
+        <v>5719</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>5719</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="D8" s="1" t="n">
+        <v>4623</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>4623</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="D9" s="1" t="n">
+        <v>1784</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>1784</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="D10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="D11" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="D12" s="1" t="n">
+        <v>1365</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>1365</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="D13" s="1" t="n">
+        <v>2738</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>2738</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="D14" s="1" t="n">
+        <v>9162</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>9162</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="D15" s="1" t="n">
+        <v>43714</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>43715</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>47</v>
       </c>
+      <c r="D16" s="1" t="n">
+        <v>16381</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>16382</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="D17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>53</v>
       </c>
+      <c r="D18" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="5" t="s">
         <v>114</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="5" t="s">
         <v>126</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="5" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="5" t="s">
         <v>159</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="5" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="5" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="5" t="s">
         <v>165</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="5" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="5" t="s">
         <v>168</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="5" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="5" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="5" t="s">
         <v>174</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="5" t="s">
         <v>177</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="5" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="5" t="s">
         <v>180</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="5" t="s">
         <v>183</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="5" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="5" t="s">
         <v>186</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="5" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="5" t="s">
         <v>189</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="5" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="5" t="s">
         <v>192</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="5" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="5" t="s">
         <v>195</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="5" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="5" t="s">
         <v>198</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="5" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="5" t="s">
         <v>201</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="5" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="5" t="s">
         <v>204</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="5" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="5" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="5" t="s">
         <v>210</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="5" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="5" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="5" t="s">
         <v>216</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="5" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="5" t="s">
         <v>219</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="5" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="5" t="s">
         <v>222</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="5" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="5" t="s">
         <v>225</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="5" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="5" t="s">
         <v>228</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="5" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="5" t="s">
         <v>231</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="5" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="5" t="s">
         <v>234</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="5" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="5" t="s">
         <v>237</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="5" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="5" t="s">
         <v>240</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="5" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="5" t="s">
         <v>243</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="5" t="s">
         <v>246</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="5" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="5" t="s">
         <v>249</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="5" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
-        <v>249</v>
+      <c r="A85" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C85" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="5" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
+      <c r="B86" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="B86" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="5" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="5" t="s">
         <v>256</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="5" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="5" t="s">
         <v>259</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="5" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="5" t="s">
         <v>262</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="5" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="5" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="5" t="s">
         <v>268</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="5" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="5" t="s">
         <v>271</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="5" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="5" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="5" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="5" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="5" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="5" t="s">
         <v>286</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="5" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="5" t="s">
         <v>289</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="5" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="5" t="s">
         <v>292</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="5" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="5" t="s">
         <v>295</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="5" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="5" t="s">
         <v>298</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="5" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="5" t="s">
         <v>301</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="5" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="5" t="s">
         <v>304</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="5" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="5" t="s">
         <v>307</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="5" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="5" t="s">
         <v>310</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="5" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="5" t="s">
         <v>313</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="5" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="5" t="s">
         <v>316</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="5" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="5" t="s">
         <v>319</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="5" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="5" t="s">
         <v>322</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="5" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="5" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="5" t="s">
         <v>328</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="5" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="5" t="s">
         <v>331</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="5" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="5" t="s">
         <v>334</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="5" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="5" t="s">
         <v>337</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="5" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="5" t="s">
         <v>340</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="5" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="5" t="s">
         <v>343</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="5" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="5" t="s">
         <v>346</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="5" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="5" t="s">
         <v>349</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="5" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="5" t="s">
         <v>352</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="5" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="5" t="s">
         <v>355</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="5" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="5" t="s">
         <v>358</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="5" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="5" t="s">
         <v>361</v>
       </c>
       <c r="B122" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="5" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="5" t="s">
         <v>364</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="5" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="5" t="s">
         <v>367</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="5" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="s">
-        <v>367</v>
+      <c r="A125" s="5" t="s">
+        <v>370</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="C125" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="5" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="s">
+      <c r="B126" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="B126" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="5" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="5" t="s">
         <v>374</v>
       </c>
       <c r="B127" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="5" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="5" t="s">
         <v>377</v>
       </c>
       <c r="B128" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="5" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="5" t="s">
         <v>380</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="5" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="5" t="s">
         <v>383</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="5" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="5" t="s">
         <v>386</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="5" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="5" t="s">
         <v>389</v>
       </c>
       <c r="B132" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="5" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B133" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="5" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="5" t="s">
         <v>395</v>
       </c>
       <c r="B134" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="5" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="5" t="s">
         <v>398</v>
       </c>
       <c r="B135" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="5" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="5" t="s">
         <v>401</v>
       </c>
       <c r="B136" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="5" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="5" t="s">
         <v>404</v>
       </c>
       <c r="B137" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="5" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="5" t="s">
         <v>407</v>
       </c>
       <c r="B138" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="5" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="5" t="s">
         <v>410</v>
       </c>
       <c r="B139" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="5" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="5" t="s">
         <v>413</v>
       </c>
       <c r="B140" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="5" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="5" t="s">
         <v>416</v>
       </c>
       <c r="B141" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="5" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="5" t="s">
         <v>419</v>
       </c>
       <c r="B142" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="5" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="5" t="s">
         <v>422</v>
       </c>
       <c r="B143" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="5" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="5" t="s">
         <v>425</v>
       </c>
       <c r="B144" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="6" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="5" t="s">
         <v>428</v>
       </c>
       <c r="B145" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="5" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="5" t="s">
         <v>431</v>
       </c>
       <c r="B146" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="5" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="s">
-        <v>431</v>
+      <c r="A147" s="5" t="s">
+        <v>434</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>432</v>
-      </c>
-      <c r="C147" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="5" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="s">
-        <v>431</v>
-      </c>
       <c r="B148" s="0" t="s">
-        <v>432</v>
-      </c>
-      <c r="C148" s="1" t="s">
         <v>435</v>
       </c>
+      <c r="C148" s="5" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="s">
-        <v>436</v>
+      <c r="A149" s="5" t="s">
+        <v>434</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="C149" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C149" s="5" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="5" t="s">
         <v>439</v>
       </c>
       <c r="B150" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="5" t="s">
         <v>441</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C143" r:id="rId1" display="https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A0%D1%8B%D0%B1%D1%8B"/>
+    <hyperlink ref="C144" r:id="rId1" display="https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F:%D0%A0%D1%8B%D0%B1%D1%8B"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3398,245 +3529,239 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D1" s="5"/>
+        <v>445</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>445</v>
+        <v>447</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="D3" s="5"/>
+        <v>449</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="D4" s="5"/>
+        <v>451</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>451</v>
+        <v>453</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>458</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>457</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="C8" s="6"/>
+        <v>460</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="D9" s="5"/>
+        <v>462</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>461</v>
-      </c>
-      <c r="B10" s="4"/>
+        <v>464</v>
+      </c>
+      <c r="B10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="B11" s="4"/>
+        <v>465</v>
+      </c>
+      <c r="B11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="D12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>468</v>
+        <v>470</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>469</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>460</v>
+        <v>472</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>472</v>
+        <v>474</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>474</v>
+        <v>476</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>476</v>
+        <v>478</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>477</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>478</v>
+        <v>480</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>479</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>480</v>
+        <v>482</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="31.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>483</v>
+      <c r="A21" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>488</v>
+        <v>490</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>489</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>488</v>
+        <v>492</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>490</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>488</v>
+        <v>493</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>

--- a/Dox/Roman_Parsers.xlsx
+++ b/Dox/Roman_Parsers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="wiki" sheetId="1" state="visible" r:id="rId2"/>
@@ -1679,19 +1679,19 @@
   </sheetPr>
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2057,6 +2057,15 @@
       <c r="C19" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="D19" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
@@ -2067,6 +2076,15 @@
       </c>
       <c r="C20" s="5" t="s">
         <v>59</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3537,10 +3555,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Dox/Roman_Parsers.xlsx
+++ b/Dox/Roman_Parsers.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990"/>
@@ -1508,8 +1508,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1613,6 +1613,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1691,6 +1696,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1725,6 +1731,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1900,14 +1907,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.7109375"/>
     <col min="2" max="2" width="15.42578125"/>
@@ -1918,7 +1925,7 @@
     <col min="7" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="4" t="s">
@@ -1931,7 +1938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.35" customHeight="1">
+    <row r="2" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1951,7 +1958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.35" customHeight="1">
+    <row r="3" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1971,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.35" customHeight="1">
+    <row r="4" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1991,7 +1998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.35" customHeight="1">
+    <row r="5" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -2011,7 +2018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.35" customHeight="1">
+    <row r="6" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -2031,7 +2038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.35" customHeight="1">
+    <row r="7" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -2051,7 +2058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.35" customHeight="1">
+    <row r="8" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -2071,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.35" customHeight="1">
+    <row r="9" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -2091,7 +2098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.35" customHeight="1">
+    <row r="10" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -2111,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.35" customHeight="1">
+    <row r="11" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
@@ -2131,7 +2138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.35" customHeight="1">
+    <row r="12" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
@@ -2151,7 +2158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.35" customHeight="1">
+    <row r="13" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -2171,7 +2178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.35" customHeight="1">
+    <row r="14" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
@@ -2191,7 +2198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.35" customHeight="1">
+    <row r="15" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
@@ -2211,7 +2218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.35" customHeight="1">
+    <row r="16" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
@@ -2231,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.35" customHeight="1">
+    <row r="17" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
@@ -2251,7 +2258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.35" customHeight="1">
+    <row r="18" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
@@ -2271,7 +2278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.35" customHeight="1">
+    <row r="19" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>54</v>
       </c>
@@ -2291,7 +2298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.35" customHeight="1">
+    <row r="20" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>57</v>
       </c>
@@ -2311,7 +2318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.35" customHeight="1">
+    <row r="21" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>60</v>
       </c>
@@ -2331,7 +2338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.35" customHeight="1">
+    <row r="22" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>63</v>
       </c>
@@ -2351,7 +2358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.35" customHeight="1">
+    <row r="23" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>66</v>
       </c>
@@ -2371,7 +2378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28.35" customHeight="1">
+    <row r="24" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>69</v>
       </c>
@@ -2391,7 +2398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.35" customHeight="1">
+    <row r="25" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>72</v>
       </c>
@@ -2411,7 +2418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="28.35" customHeight="1">
+    <row r="26" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>75</v>
       </c>
@@ -2431,7 +2438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28.35" customHeight="1">
+    <row r="27" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>78</v>
       </c>
@@ -2451,7 +2458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="28.35" customHeight="1">
+    <row r="28" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>81</v>
       </c>
@@ -2471,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="28.35" customHeight="1">
+    <row r="29" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>84</v>
       </c>
@@ -2491,7 +2498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="28.35" customHeight="1">
+    <row r="30" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>87</v>
       </c>
@@ -2511,7 +2518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="28.35" customHeight="1">
+    <row r="31" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>90</v>
       </c>
@@ -2531,7 +2538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28.35" customHeight="1">
+    <row r="32" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>93</v>
       </c>
@@ -2551,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="28.35" customHeight="1">
+    <row r="33" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>96</v>
       </c>
@@ -2561,8 +2568,17 @@
       <c r="C33" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="28.35" customHeight="1">
+      <c r="D33" s="1">
+        <v>1371</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1371</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>99</v>
       </c>
@@ -2573,7 +2589,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="28.35" customHeight="1">
+    <row r="35" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>102</v>
       </c>
@@ -2584,7 +2600,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="28.35" customHeight="1">
+    <row r="36" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>105</v>
       </c>
@@ -2595,7 +2611,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="28.35" customHeight="1">
+    <row r="37" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>108</v>
       </c>
@@ -2606,7 +2622,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="28.35" customHeight="1">
+    <row r="38" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>111</v>
       </c>
@@ -2617,7 +2633,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="28.35" customHeight="1">
+    <row r="39" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>114</v>
       </c>
@@ -2628,7 +2644,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="28.35" customHeight="1">
+    <row r="40" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>117</v>
       </c>
@@ -2639,7 +2655,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="28.35" customHeight="1">
+    <row r="41" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>120</v>
       </c>
@@ -2650,7 +2666,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="28.35" customHeight="1">
+    <row r="42" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>123</v>
       </c>
@@ -2661,7 +2677,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="28.35" customHeight="1">
+    <row r="43" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>126</v>
       </c>
@@ -2672,7 +2688,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="28.35" customHeight="1">
+    <row r="44" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>129</v>
       </c>
@@ -2683,7 +2699,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="28.35" customHeight="1">
+    <row r="45" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>132</v>
       </c>
@@ -2694,7 +2710,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="28.35" customHeight="1">
+    <row r="46" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>135</v>
       </c>
@@ -2705,7 +2721,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="28.35" customHeight="1">
+    <row r="47" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>138</v>
       </c>
@@ -2716,7 +2732,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="28.35" customHeight="1">
+    <row r="48" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>141</v>
       </c>
@@ -2727,7 +2743,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="28.35" customHeight="1">
+    <row r="49" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>144</v>
       </c>
@@ -2738,7 +2754,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="28.35" customHeight="1">
+    <row r="50" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>147</v>
       </c>
@@ -2749,7 +2765,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="28.35" customHeight="1">
+    <row r="51" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>150</v>
       </c>
@@ -2760,7 +2776,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="28.35" customHeight="1">
+    <row r="52" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>153</v>
       </c>
@@ -2771,7 +2787,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="28.35" customHeight="1">
+    <row r="53" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>156</v>
       </c>
@@ -2782,7 +2798,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="28.35" customHeight="1">
+    <row r="54" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>159</v>
       </c>
@@ -2793,7 +2809,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="28.35" customHeight="1">
+    <row r="55" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>162</v>
       </c>
@@ -2804,7 +2820,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="28.35" customHeight="1">
+    <row r="56" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>165</v>
       </c>
@@ -2815,7 +2831,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="28.35" customHeight="1">
+    <row r="57" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>168</v>
       </c>
@@ -2826,7 +2842,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="28.35" customHeight="1">
+    <row r="58" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>171</v>
       </c>
@@ -2837,7 +2853,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="28.35" customHeight="1">
+    <row r="59" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>174</v>
       </c>
@@ -2848,7 +2864,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="28.35" customHeight="1">
+    <row r="60" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>177</v>
       </c>
@@ -2859,7 +2875,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="28.35" customHeight="1">
+    <row r="61" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>180</v>
       </c>
@@ -2870,7 +2886,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="28.35" customHeight="1">
+    <row r="62" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>183</v>
       </c>
@@ -2881,7 +2897,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="28.35" customHeight="1">
+    <row r="63" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>186</v>
       </c>
@@ -2892,7 +2908,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="28.35" customHeight="1">
+    <row r="64" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>189</v>
       </c>
@@ -2903,7 +2919,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="28.35" customHeight="1">
+    <row r="65" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>192</v>
       </c>
@@ -2914,7 +2930,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="28.35" customHeight="1">
+    <row r="66" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>195</v>
       </c>
@@ -2925,7 +2941,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="28.35" customHeight="1">
+    <row r="67" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>198</v>
       </c>
@@ -2936,7 +2952,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="28.35" customHeight="1">
+    <row r="68" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>201</v>
       </c>
@@ -2947,7 +2963,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="28.35" customHeight="1">
+    <row r="69" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>204</v>
       </c>
@@ -2958,7 +2974,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="28.35" customHeight="1">
+    <row r="70" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>207</v>
       </c>
@@ -2969,7 +2985,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="28.35" customHeight="1">
+    <row r="71" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>210</v>
       </c>
@@ -2980,7 +2996,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="28.35" customHeight="1">
+    <row r="72" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>213</v>
       </c>
@@ -2991,7 +3007,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="28.35" customHeight="1">
+    <row r="73" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>216</v>
       </c>
@@ -3002,7 +3018,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="28.35" customHeight="1">
+    <row r="74" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>219</v>
       </c>
@@ -3013,7 +3029,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="28.35" customHeight="1">
+    <row r="75" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>222</v>
       </c>
@@ -3024,7 +3040,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="28.35" customHeight="1">
+    <row r="76" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>225</v>
       </c>
@@ -3035,7 +3051,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="28.35" customHeight="1">
+    <row r="77" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>228</v>
       </c>
@@ -3046,7 +3062,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="28.35" customHeight="1">
+    <row r="78" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>231</v>
       </c>
@@ -3057,7 +3073,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="28.35" customHeight="1">
+    <row r="79" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>234</v>
       </c>
@@ -3068,7 +3084,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="28.35" customHeight="1">
+    <row r="80" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>237</v>
       </c>
@@ -3079,7 +3095,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="28.35" customHeight="1">
+    <row r="81" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>240</v>
       </c>
@@ -3090,7 +3106,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="28.35" customHeight="1">
+    <row r="82" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>243</v>
       </c>
@@ -3101,7 +3117,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="28.35" customHeight="1">
+    <row r="83" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>246</v>
       </c>
@@ -3112,7 +3128,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="28.35" customHeight="1">
+    <row r="84" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>249</v>
       </c>
@@ -3123,7 +3139,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="28.35" customHeight="1">
+    <row r="85" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>252</v>
       </c>
@@ -3134,7 +3150,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="28.35" customHeight="1">
+    <row r="86" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>252</v>
       </c>
@@ -3145,7 +3161,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="28.35" customHeight="1">
+    <row r="87" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>256</v>
       </c>
@@ -3156,7 +3172,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="28.35" customHeight="1">
+    <row r="88" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>259</v>
       </c>
@@ -3167,7 +3183,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="28.35" customHeight="1">
+    <row r="89" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>262</v>
       </c>
@@ -3178,7 +3194,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="28.35" customHeight="1">
+    <row r="90" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>265</v>
       </c>
@@ -3189,7 +3205,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="28.35" customHeight="1">
+    <row r="91" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>268</v>
       </c>
@@ -3200,7 +3216,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="28.35" customHeight="1">
+    <row r="92" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>271</v>
       </c>
@@ -3211,7 +3227,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="28.35" customHeight="1">
+    <row r="93" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>274</v>
       </c>
@@ -3222,7 +3238,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="28.35" customHeight="1">
+    <row r="94" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>277</v>
       </c>
@@ -3233,7 +3249,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="28.35" customHeight="1">
+    <row r="95" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>280</v>
       </c>
@@ -3244,7 +3260,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="28.35" customHeight="1">
+    <row r="96" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>283</v>
       </c>
@@ -3255,7 +3271,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="28.35" customHeight="1">
+    <row r="97" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>286</v>
       </c>
@@ -3266,7 +3282,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="28.35" customHeight="1">
+    <row r="98" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>289</v>
       </c>
@@ -3277,7 +3293,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="28.35" customHeight="1">
+    <row r="99" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>292</v>
       </c>
@@ -3288,7 +3304,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="28.35" customHeight="1">
+    <row r="100" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>295</v>
       </c>
@@ -3299,7 +3315,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="28.35" customHeight="1">
+    <row r="101" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>298</v>
       </c>
@@ -3310,7 +3326,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="28.35" customHeight="1">
+    <row r="102" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>301</v>
       </c>
@@ -3321,7 +3337,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="28.35" customHeight="1">
+    <row r="103" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>304</v>
       </c>
@@ -3332,7 +3348,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="28.35" customHeight="1">
+    <row r="104" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>307</v>
       </c>
@@ -3343,7 +3359,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="28.35" customHeight="1">
+    <row r="105" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>310</v>
       </c>
@@ -3354,7 +3370,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="28.35" customHeight="1">
+    <row r="106" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>313</v>
       </c>
@@ -3365,7 +3381,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="28.35" customHeight="1">
+    <row r="107" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>316</v>
       </c>
@@ -3376,7 +3392,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="28.35" customHeight="1">
+    <row r="108" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>319</v>
       </c>
@@ -3387,7 +3403,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="28.35" customHeight="1">
+    <row r="109" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>322</v>
       </c>
@@ -3398,7 +3414,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="28.35" customHeight="1">
+    <row r="110" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>325</v>
       </c>
@@ -3409,7 +3425,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="28.35" customHeight="1">
+    <row r="111" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>328</v>
       </c>
@@ -3420,7 +3436,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="28.35" customHeight="1">
+    <row r="112" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>331</v>
       </c>
@@ -3431,7 +3447,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="28.35" customHeight="1">
+    <row r="113" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>334</v>
       </c>
@@ -3442,7 +3458,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="28.35" customHeight="1">
+    <row r="114" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>337</v>
       </c>
@@ -3453,7 +3469,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="28.35" customHeight="1">
+    <row r="115" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>340</v>
       </c>
@@ -3464,7 +3480,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="28.35" customHeight="1">
+    <row r="116" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>343</v>
       </c>
@@ -3475,7 +3491,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="28.35" customHeight="1">
+    <row r="117" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>346</v>
       </c>
@@ -3486,7 +3502,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="28.35" customHeight="1">
+    <row r="118" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>349</v>
       </c>
@@ -3497,7 +3513,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="28.35" customHeight="1">
+    <row r="119" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>352</v>
       </c>
@@ -3508,7 +3524,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="28.35" customHeight="1">
+    <row r="120" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>355</v>
       </c>
@@ -3519,7 +3535,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="28.35" customHeight="1">
+    <row r="121" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>358</v>
       </c>
@@ -3530,7 +3546,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="28.35" customHeight="1">
+    <row r="122" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>361</v>
       </c>
@@ -3541,7 +3557,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="28.35" customHeight="1">
+    <row r="123" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>364</v>
       </c>
@@ -3552,7 +3568,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="28.35" customHeight="1">
+    <row r="124" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>367</v>
       </c>
@@ -3563,7 +3579,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="28.35" customHeight="1">
+    <row r="125" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>370</v>
       </c>
@@ -3574,7 +3590,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="28.35" customHeight="1">
+    <row r="126" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>370</v>
       </c>
@@ -3585,7 +3601,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="28.35" customHeight="1">
+    <row r="127" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>374</v>
       </c>
@@ -3596,7 +3612,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="28.35" customHeight="1">
+    <row r="128" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>377</v>
       </c>
@@ -3607,7 +3623,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="28.35" customHeight="1">
+    <row r="129" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>380</v>
       </c>
@@ -3618,7 +3634,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="28.35" customHeight="1">
+    <row r="130" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>383</v>
       </c>
@@ -3629,7 +3645,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="28.35" customHeight="1">
+    <row r="131" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
         <v>386</v>
       </c>
@@ -3640,7 +3656,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="28.35" customHeight="1">
+    <row r="132" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
         <v>389</v>
       </c>
@@ -3651,7 +3667,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="28.35" customHeight="1">
+    <row r="133" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
         <v>392</v>
       </c>
@@ -3662,7 +3678,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="28.35" customHeight="1">
+    <row r="134" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
         <v>395</v>
       </c>
@@ -3673,7 +3689,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="28.35" customHeight="1">
+    <row r="135" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
         <v>398</v>
       </c>
@@ -3684,7 +3700,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="28.35" customHeight="1">
+    <row r="136" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>401</v>
       </c>
@@ -3695,7 +3711,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="28.35" customHeight="1">
+    <row r="137" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>404</v>
       </c>
@@ -3706,7 +3722,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="28.35" customHeight="1">
+    <row r="138" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>407</v>
       </c>
@@ -3717,7 +3733,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="28.35" customHeight="1">
+    <row r="139" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
         <v>410</v>
       </c>
@@ -3728,7 +3744,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="28.35" customHeight="1">
+    <row r="140" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
         <v>413</v>
       </c>
@@ -3739,7 +3755,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="28.35" customHeight="1">
+    <row r="141" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>416</v>
       </c>
@@ -3750,7 +3766,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="28.35" customHeight="1">
+    <row r="142" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>419</v>
       </c>
@@ -3761,7 +3777,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="28.35" customHeight="1">
+    <row r="143" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>422</v>
       </c>
@@ -3772,7 +3788,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="28.35" customHeight="1">
+    <row r="144" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>425</v>
       </c>
@@ -3783,7 +3799,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="28.35" customHeight="1">
+    <row r="145" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>428</v>
       </c>
@@ -3794,7 +3810,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="28.35" customHeight="1">
+    <row r="146" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
         <v>431</v>
       </c>
@@ -3805,7 +3821,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="28.35" customHeight="1">
+    <row r="147" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>434</v>
       </c>
@@ -3816,7 +3832,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="28.35" customHeight="1">
+    <row r="148" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
         <v>434</v>
       </c>
@@ -3827,7 +3843,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="28.35" customHeight="1">
+    <row r="149" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
         <v>434</v>
       </c>
@@ -3838,7 +3854,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="28.35" customHeight="1">
+    <row r="150" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
         <v>439</v>
       </c>
@@ -3849,7 +3865,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="28.35" customHeight="1">
+    <row r="151" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
         <v>442</v>
       </c>
@@ -3874,14 +3890,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5703125"/>
     <col min="2" max="2" width="24.85546875" style="7"/>
@@ -3890,7 +3906,7 @@
     <col min="5" max="1025" width="8.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>445</v>
       </c>
@@ -3898,7 +3914,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>447</v>
       </c>
@@ -3906,7 +3922,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>449</v>
       </c>
@@ -3914,7 +3930,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>451</v>
       </c>
@@ -3922,7 +3938,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>453</v>
       </c>
@@ -3930,7 +3946,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>455</v>
       </c>
@@ -3941,7 +3957,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>458</v>
       </c>
@@ -3950,7 +3966,7 @@
       </c>
       <c r="C7" s="9"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>460</v>
       </c>
@@ -3959,7 +3975,7 @@
       </c>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>462</v>
       </c>
@@ -3968,19 +3984,19 @@
         <v>463</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>464</v>
       </c>
       <c r="B10" s="8"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>465</v>
       </c>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>466</v>
       </c>
@@ -3991,7 +4007,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>468</v>
       </c>
@@ -3999,7 +4015,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>470</v>
       </c>
@@ -4007,7 +4023,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>472</v>
       </c>
@@ -4018,7 +4034,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>474</v>
       </c>
@@ -4026,7 +4042,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>476</v>
       </c>
@@ -4034,7 +4050,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>478</v>
       </c>
@@ -4042,7 +4058,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>480</v>
       </c>
@@ -4050,7 +4066,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>482</v>
       </c>
@@ -4058,7 +4074,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5" customHeight="1">
+    <row r="21" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>484</v>
       </c>
@@ -4069,25 +4085,25 @@
         <v>486</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>487</v>
       </c>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>488</v>
       </c>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>489</v>
       </c>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>490</v>
       </c>
@@ -4095,7 +4111,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>492</v>
       </c>
@@ -4103,7 +4119,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>493</v>
       </c>

--- a/Dox/Roman_Parsers.xlsx
+++ b/Dox/Roman_Parsers.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990"/>
@@ -1508,8 +1508,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1696,7 +1696,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1731,7 +1730,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1907,14 +1905,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="12.7109375"/>
     <col min="2" max="2" width="15.42578125"/>
@@ -1925,7 +1923,7 @@
     <col min="7" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="4" t="s">
@@ -1938,7 +1936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="28.35" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1958,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="28.35" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1978,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="28.35" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1998,7 +1996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28.35" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -2018,7 +2016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="28.35" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -2038,7 +2036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="28.35" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -2058,7 +2056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="28.35" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -2078,7 +2076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="28.35" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -2098,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="28.35" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -2118,7 +2116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="28.35" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
@@ -2138,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="28.35" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
@@ -2158,7 +2156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="28.35" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -2178,7 +2176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="28.35" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
@@ -2198,7 +2196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="28.35" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
@@ -2218,7 +2216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="28.35" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
@@ -2238,7 +2236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="28.35" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
@@ -2258,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="28.35" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
@@ -2278,7 +2276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="28.35" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>54</v>
       </c>
@@ -2298,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="28.35" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>57</v>
       </c>
@@ -2318,7 +2316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="28.35" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>60</v>
       </c>
@@ -2338,7 +2336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="28.35" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>63</v>
       </c>
@@ -2358,7 +2356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="28.35" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>66</v>
       </c>
@@ -2378,7 +2376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="28.35" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>69</v>
       </c>
@@ -2398,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="28.35" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>72</v>
       </c>
@@ -2418,7 +2416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="28.35" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>75</v>
       </c>
@@ -2438,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="28.35" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>78</v>
       </c>
@@ -2458,7 +2456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="28.35" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>81</v>
       </c>
@@ -2478,7 +2476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="28.35" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>84</v>
       </c>
@@ -2498,7 +2496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="28.35" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>87</v>
       </c>
@@ -2518,7 +2516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="28.35" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>90</v>
       </c>
@@ -2538,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="28.35" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>93</v>
       </c>
@@ -2558,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="28.35" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>96</v>
       </c>
@@ -2578,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="28.35" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>99</v>
       </c>
@@ -2588,8 +2586,17 @@
       <c r="C34" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D34" s="1">
+        <v>9887</v>
+      </c>
+      <c r="E34" s="1">
+        <v>9887</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="28.35" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>102</v>
       </c>
@@ -2599,8 +2606,17 @@
       <c r="C35" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="1">
+        <v>1080</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1080</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="28.35" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>105</v>
       </c>
@@ -2610,8 +2626,17 @@
       <c r="C36" s="5" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D36" s="1">
+        <v>6201</v>
+      </c>
+      <c r="E36" s="1">
+        <v>6201</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="28.35" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>108</v>
       </c>
@@ -2621,8 +2646,17 @@
       <c r="C37" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D37" s="1">
+        <v>365</v>
+      </c>
+      <c r="E37" s="1">
+        <v>365</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="28.35" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>111</v>
       </c>
@@ -2632,8 +2666,17 @@
       <c r="C38" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D38" s="1">
+        <v>766</v>
+      </c>
+      <c r="E38" s="1">
+        <v>766</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="28.35" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>114</v>
       </c>
@@ -2644,7 +2687,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="28.35" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>117</v>
       </c>
@@ -2655,7 +2698,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="28.35" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>120</v>
       </c>
@@ -2666,7 +2709,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="28.35" customHeight="1">
       <c r="A42" s="5" t="s">
         <v>123</v>
       </c>
@@ -2677,7 +2720,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="28.35" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>126</v>
       </c>
@@ -2688,7 +2731,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="28.35" customHeight="1">
       <c r="A44" s="5" t="s">
         <v>129</v>
       </c>
@@ -2699,7 +2742,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="28.35" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>132</v>
       </c>
@@ -2710,7 +2753,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="28.35" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>135</v>
       </c>
@@ -2721,7 +2764,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="28.35" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>138</v>
       </c>
@@ -2732,7 +2775,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="28.35" customHeight="1">
       <c r="A48" s="5" t="s">
         <v>141</v>
       </c>
@@ -2743,7 +2786,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="28.35" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>144</v>
       </c>
@@ -2754,7 +2797,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="28.35" customHeight="1">
       <c r="A50" s="5" t="s">
         <v>147</v>
       </c>
@@ -2765,7 +2808,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="28.35" customHeight="1">
       <c r="A51" s="5" t="s">
         <v>150</v>
       </c>
@@ -2776,7 +2819,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="28.35" customHeight="1">
       <c r="A52" s="5" t="s">
         <v>153</v>
       </c>
@@ -2787,7 +2830,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="28.35" customHeight="1">
       <c r="A53" s="5" t="s">
         <v>156</v>
       </c>
@@ -2798,7 +2841,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="28.35" customHeight="1">
       <c r="A54" s="5" t="s">
         <v>159</v>
       </c>
@@ -2809,7 +2852,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="28.35" customHeight="1">
       <c r="A55" s="5" t="s">
         <v>162</v>
       </c>
@@ -2820,7 +2863,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="28.35" customHeight="1">
       <c r="A56" s="5" t="s">
         <v>165</v>
       </c>
@@ -2831,7 +2874,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="28.35" customHeight="1">
       <c r="A57" s="5" t="s">
         <v>168</v>
       </c>
@@ -2842,7 +2885,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="28.35" customHeight="1">
       <c r="A58" s="5" t="s">
         <v>171</v>
       </c>
@@ -2853,7 +2896,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="28.35" customHeight="1">
       <c r="A59" s="5" t="s">
         <v>174</v>
       </c>
@@ -2864,7 +2907,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="28.35" customHeight="1">
       <c r="A60" s="5" t="s">
         <v>177</v>
       </c>
@@ -2875,7 +2918,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="28.35" customHeight="1">
       <c r="A61" s="5" t="s">
         <v>180</v>
       </c>
@@ -2886,7 +2929,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="28.35" customHeight="1">
       <c r="A62" s="5" t="s">
         <v>183</v>
       </c>
@@ -2897,7 +2940,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="28.35" customHeight="1">
       <c r="A63" s="5" t="s">
         <v>186</v>
       </c>
@@ -2908,7 +2951,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="28.35" customHeight="1">
       <c r="A64" s="5" t="s">
         <v>189</v>
       </c>
@@ -2919,7 +2962,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="28.35" customHeight="1">
       <c r="A65" s="5" t="s">
         <v>192</v>
       </c>
@@ -2930,7 +2973,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="28.35" customHeight="1">
       <c r="A66" s="5" t="s">
         <v>195</v>
       </c>
@@ -2941,7 +2984,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="28.35" customHeight="1">
       <c r="A67" s="5" t="s">
         <v>198</v>
       </c>
@@ -2952,7 +2995,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="28.35" customHeight="1">
       <c r="A68" s="5" t="s">
         <v>201</v>
       </c>
@@ -2963,7 +3006,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="28.35" customHeight="1">
       <c r="A69" s="5" t="s">
         <v>204</v>
       </c>
@@ -2974,7 +3017,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="28.35" customHeight="1">
       <c r="A70" s="5" t="s">
         <v>207</v>
       </c>
@@ -2985,7 +3028,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="28.35" customHeight="1">
       <c r="A71" s="5" t="s">
         <v>210</v>
       </c>
@@ -2996,7 +3039,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="28.35" customHeight="1">
       <c r="A72" s="5" t="s">
         <v>213</v>
       </c>
@@ -3007,7 +3050,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="28.35" customHeight="1">
       <c r="A73" s="5" t="s">
         <v>216</v>
       </c>
@@ -3018,7 +3061,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="28.35" customHeight="1">
       <c r="A74" s="5" t="s">
         <v>219</v>
       </c>
@@ -3029,7 +3072,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="28.35" customHeight="1">
       <c r="A75" s="5" t="s">
         <v>222</v>
       </c>
@@ -3040,7 +3083,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="28.35" customHeight="1">
       <c r="A76" s="5" t="s">
         <v>225</v>
       </c>
@@ -3051,7 +3094,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="28.35" customHeight="1">
       <c r="A77" s="5" t="s">
         <v>228</v>
       </c>
@@ -3062,7 +3105,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="28.35" customHeight="1">
       <c r="A78" s="5" t="s">
         <v>231</v>
       </c>
@@ -3073,7 +3116,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="28.35" customHeight="1">
       <c r="A79" s="5" t="s">
         <v>234</v>
       </c>
@@ -3084,7 +3127,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="28.35" customHeight="1">
       <c r="A80" s="5" t="s">
         <v>237</v>
       </c>
@@ -3095,7 +3138,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="28.35" customHeight="1">
       <c r="A81" s="5" t="s">
         <v>240</v>
       </c>
@@ -3106,7 +3149,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="28.35" customHeight="1">
       <c r="A82" s="5" t="s">
         <v>243</v>
       </c>
@@ -3117,7 +3160,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="28.35" customHeight="1">
       <c r="A83" s="5" t="s">
         <v>246</v>
       </c>
@@ -3128,7 +3171,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="28.35" customHeight="1">
       <c r="A84" s="5" t="s">
         <v>249</v>
       </c>
@@ -3139,7 +3182,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="28.35" customHeight="1">
       <c r="A85" s="5" t="s">
         <v>252</v>
       </c>
@@ -3150,7 +3193,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" ht="28.35" customHeight="1">
       <c r="A86" s="5" t="s">
         <v>252</v>
       </c>
@@ -3161,7 +3204,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="28.35" customHeight="1">
       <c r="A87" s="5" t="s">
         <v>256</v>
       </c>
@@ -3172,7 +3215,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="28.35" customHeight="1">
       <c r="A88" s="5" t="s">
         <v>259</v>
       </c>
@@ -3183,7 +3226,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="28.35" customHeight="1">
       <c r="A89" s="5" t="s">
         <v>262</v>
       </c>
@@ -3194,7 +3237,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="28.35" customHeight="1">
       <c r="A90" s="5" t="s">
         <v>265</v>
       </c>
@@ -3205,7 +3248,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="28.35" customHeight="1">
       <c r="A91" s="5" t="s">
         <v>268</v>
       </c>
@@ -3216,7 +3259,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="28.35" customHeight="1">
       <c r="A92" s="5" t="s">
         <v>271</v>
       </c>
@@ -3227,7 +3270,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="28.35" customHeight="1">
       <c r="A93" s="5" t="s">
         <v>274</v>
       </c>
@@ -3238,7 +3281,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="28.35" customHeight="1">
       <c r="A94" s="5" t="s">
         <v>277</v>
       </c>
@@ -3249,7 +3292,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="28.35" customHeight="1">
       <c r="A95" s="5" t="s">
         <v>280</v>
       </c>
@@ -3260,7 +3303,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="28.35" customHeight="1">
       <c r="A96" s="5" t="s">
         <v>283</v>
       </c>
@@ -3271,7 +3314,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="28.35" customHeight="1">
       <c r="A97" s="5" t="s">
         <v>286</v>
       </c>
@@ -3282,7 +3325,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="28.35" customHeight="1">
       <c r="A98" s="5" t="s">
         <v>289</v>
       </c>
@@ -3293,7 +3336,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="28.35" customHeight="1">
       <c r="A99" s="5" t="s">
         <v>292</v>
       </c>
@@ -3304,7 +3347,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="28.35" customHeight="1">
       <c r="A100" s="5" t="s">
         <v>295</v>
       </c>
@@ -3315,7 +3358,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="28.35" customHeight="1">
       <c r="A101" s="5" t="s">
         <v>298</v>
       </c>
@@ -3326,7 +3369,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="28.35" customHeight="1">
       <c r="A102" s="5" t="s">
         <v>301</v>
       </c>
@@ -3337,7 +3380,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="28.35" customHeight="1">
       <c r="A103" s="5" t="s">
         <v>304</v>
       </c>
@@ -3348,7 +3391,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="28.35" customHeight="1">
       <c r="A104" s="5" t="s">
         <v>307</v>
       </c>
@@ -3359,7 +3402,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="28.35" customHeight="1">
       <c r="A105" s="5" t="s">
         <v>310</v>
       </c>
@@ -3370,7 +3413,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="28.35" customHeight="1">
       <c r="A106" s="5" t="s">
         <v>313</v>
       </c>
@@ -3381,7 +3424,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="28.35" customHeight="1">
       <c r="A107" s="5" t="s">
         <v>316</v>
       </c>
@@ -3392,7 +3435,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" ht="28.35" customHeight="1">
       <c r="A108" s="5" t="s">
         <v>319</v>
       </c>
@@ -3403,7 +3446,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="28.35" customHeight="1">
       <c r="A109" s="5" t="s">
         <v>322</v>
       </c>
@@ -3414,7 +3457,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="28.35" customHeight="1">
       <c r="A110" s="5" t="s">
         <v>325</v>
       </c>
@@ -3425,7 +3468,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="28.35" customHeight="1">
       <c r="A111" s="5" t="s">
         <v>328</v>
       </c>
@@ -3436,7 +3479,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="28.35" customHeight="1">
       <c r="A112" s="5" t="s">
         <v>331</v>
       </c>
@@ -3447,7 +3490,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" ht="28.35" customHeight="1">
       <c r="A113" s="5" t="s">
         <v>334</v>
       </c>
@@ -3458,7 +3501,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="28.35" customHeight="1">
       <c r="A114" s="5" t="s">
         <v>337</v>
       </c>
@@ -3469,7 +3512,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" ht="28.35" customHeight="1">
       <c r="A115" s="5" t="s">
         <v>340</v>
       </c>
@@ -3480,7 +3523,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" ht="28.35" customHeight="1">
       <c r="A116" s="5" t="s">
         <v>343</v>
       </c>
@@ -3491,7 +3534,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="28.35" customHeight="1">
       <c r="A117" s="5" t="s">
         <v>346</v>
       </c>
@@ -3502,7 +3545,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="28.35" customHeight="1">
       <c r="A118" s="5" t="s">
         <v>349</v>
       </c>
@@ -3513,7 +3556,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" ht="28.35" customHeight="1">
       <c r="A119" s="5" t="s">
         <v>352</v>
       </c>
@@ -3524,7 +3567,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" ht="28.35" customHeight="1">
       <c r="A120" s="5" t="s">
         <v>355</v>
       </c>
@@ -3535,7 +3578,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" ht="28.35" customHeight="1">
       <c r="A121" s="5" t="s">
         <v>358</v>
       </c>
@@ -3546,7 +3589,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" ht="28.35" customHeight="1">
       <c r="A122" s="5" t="s">
         <v>361</v>
       </c>
@@ -3557,7 +3600,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" ht="28.35" customHeight="1">
       <c r="A123" s="5" t="s">
         <v>364</v>
       </c>
@@ -3568,7 +3611,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" ht="28.35" customHeight="1">
       <c r="A124" s="5" t="s">
         <v>367</v>
       </c>
@@ -3579,7 +3622,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" ht="28.35" customHeight="1">
       <c r="A125" s="5" t="s">
         <v>370</v>
       </c>
@@ -3590,7 +3633,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" ht="28.35" customHeight="1">
       <c r="A126" s="5" t="s">
         <v>370</v>
       </c>
@@ -3601,7 +3644,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" ht="28.35" customHeight="1">
       <c r="A127" s="5" t="s">
         <v>374</v>
       </c>
@@ -3612,7 +3655,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" ht="28.35" customHeight="1">
       <c r="A128" s="5" t="s">
         <v>377</v>
       </c>
@@ -3623,7 +3666,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" ht="28.35" customHeight="1">
       <c r="A129" s="5" t="s">
         <v>380</v>
       </c>
@@ -3634,7 +3677,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" ht="28.35" customHeight="1">
       <c r="A130" s="5" t="s">
         <v>383</v>
       </c>
@@ -3645,7 +3688,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" ht="28.35" customHeight="1">
       <c r="A131" s="5" t="s">
         <v>386</v>
       </c>
@@ -3656,7 +3699,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" ht="28.35" customHeight="1">
       <c r="A132" s="5" t="s">
         <v>389</v>
       </c>
@@ -3667,7 +3710,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" ht="28.35" customHeight="1">
       <c r="A133" s="5" t="s">
         <v>392</v>
       </c>
@@ -3678,7 +3721,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="28.35" customHeight="1">
       <c r="A134" s="5" t="s">
         <v>395</v>
       </c>
@@ -3689,7 +3732,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" ht="28.35" customHeight="1">
       <c r="A135" s="5" t="s">
         <v>398</v>
       </c>
@@ -3700,7 +3743,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" ht="28.35" customHeight="1">
       <c r="A136" s="5" t="s">
         <v>401</v>
       </c>
@@ -3711,7 +3754,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" ht="28.35" customHeight="1">
       <c r="A137" s="5" t="s">
         <v>404</v>
       </c>
@@ -3722,7 +3765,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" ht="28.35" customHeight="1">
       <c r="A138" s="5" t="s">
         <v>407</v>
       </c>
@@ -3733,7 +3776,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" ht="28.35" customHeight="1">
       <c r="A139" s="5" t="s">
         <v>410</v>
       </c>
@@ -3744,7 +3787,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" ht="28.35" customHeight="1">
       <c r="A140" s="5" t="s">
         <v>413</v>
       </c>
@@ -3755,7 +3798,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" ht="28.35" customHeight="1">
       <c r="A141" s="5" t="s">
         <v>416</v>
       </c>
@@ -3766,7 +3809,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" ht="28.35" customHeight="1">
       <c r="A142" s="5" t="s">
         <v>419</v>
       </c>
@@ -3777,7 +3820,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="28.35" customHeight="1">
       <c r="A143" s="5" t="s">
         <v>422</v>
       </c>
@@ -3788,7 +3831,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" ht="28.35" customHeight="1">
       <c r="A144" s="5" t="s">
         <v>425</v>
       </c>
@@ -3799,7 +3842,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" ht="28.35" customHeight="1">
       <c r="A145" s="5" t="s">
         <v>428</v>
       </c>
@@ -3810,7 +3853,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" ht="28.35" customHeight="1">
       <c r="A146" s="5" t="s">
         <v>431</v>
       </c>
@@ -3821,7 +3864,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" ht="28.35" customHeight="1">
       <c r="A147" s="5" t="s">
         <v>434</v>
       </c>
@@ -3832,7 +3875,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" ht="28.35" customHeight="1">
       <c r="A148" s="5" t="s">
         <v>434</v>
       </c>
@@ -3843,7 +3886,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" ht="28.35" customHeight="1">
       <c r="A149" s="5" t="s">
         <v>434</v>
       </c>
@@ -3854,7 +3897,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" ht="28.35" customHeight="1">
       <c r="A150" s="5" t="s">
         <v>439</v>
       </c>
@@ -3865,7 +3908,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" ht="28.35" customHeight="1">
       <c r="A151" s="5" t="s">
         <v>442</v>
       </c>
@@ -3890,14 +3933,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="15.5703125"/>
     <col min="2" max="2" width="24.85546875" style="7"/>
@@ -3906,7 +3949,7 @@
     <col min="5" max="1025" width="8.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>445</v>
       </c>
@@ -3914,7 +3957,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>447</v>
       </c>
@@ -3922,7 +3965,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>449</v>
       </c>
@@ -3930,7 +3973,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>451</v>
       </c>
@@ -3938,7 +3981,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>453</v>
       </c>
@@ -3946,7 +3989,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>455</v>
       </c>
@@ -3957,7 +4000,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>458</v>
       </c>
@@ -3966,7 +4009,7 @@
       </c>
       <c r="C7" s="9"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>460</v>
       </c>
@@ -3975,7 +4018,7 @@
       </c>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>462</v>
       </c>
@@ -3984,19 +4027,19 @@
         <v>463</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>464</v>
       </c>
       <c r="B10" s="8"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>465</v>
       </c>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>466</v>
       </c>
@@ -4007,7 +4050,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>468</v>
       </c>
@@ -4015,7 +4058,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>470</v>
       </c>
@@ -4023,7 +4066,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>472</v>
       </c>
@@ -4034,7 +4077,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>474</v>
       </c>
@@ -4042,7 +4085,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>476</v>
       </c>
@@ -4050,7 +4093,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>478</v>
       </c>
@@ -4058,7 +4101,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>480</v>
       </c>
@@ -4066,7 +4109,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>482</v>
       </c>
@@ -4074,7 +4117,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="31.5" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>484</v>
       </c>
@@ -4085,25 +4128,25 @@
         <v>486</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>487</v>
       </c>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>488</v>
       </c>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>489</v>
       </c>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>490</v>
       </c>
@@ -4111,7 +4154,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>492</v>
       </c>
@@ -4119,7 +4162,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>493</v>
       </c>

--- a/Dox/Roman_Parsers.xlsx
+++ b/Dox/Roman_Parsers.xlsx
@@ -1679,19 +1679,19 @@
   </sheetPr>
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D46" activeCellId="0" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2537,6 +2537,15 @@
       <c r="C43" s="5" t="s">
         <v>128</v>
       </c>
+      <c r="D43" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
@@ -2548,6 +2557,15 @@
       <c r="C44" s="5" t="s">
         <v>131</v>
       </c>
+      <c r="D44" s="1" t="n">
+        <v>1936</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>1936</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
@@ -2558,6 +2576,15 @@
       </c>
       <c r="C45" s="5" t="s">
         <v>134</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>2340</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>2340</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3753,11 +3780,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Dox/Roman_Parsers.xlsx
+++ b/Dox/Roman_Parsers.xlsx
@@ -1679,19 +1679,19 @@
   </sheetPr>
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D46" activeCellId="0" sqref="D46"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D59" activeCellId="0" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.75"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2597,6 +2597,15 @@
       <c r="C46" s="5" t="s">
         <v>137</v>
       </c>
+      <c r="D46" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
@@ -2608,6 +2617,15 @@
       <c r="C47" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="D47" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
@@ -2619,6 +2637,15 @@
       <c r="C48" s="5" t="s">
         <v>143</v>
       </c>
+      <c r="D48" s="1" t="n">
+        <v>4837</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>4837</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
@@ -2630,6 +2657,15 @@
       <c r="C49" s="5" t="s">
         <v>146</v>
       </c>
+      <c r="D49" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
@@ -2641,6 +2677,15 @@
       <c r="C50" s="5" t="s">
         <v>149</v>
       </c>
+      <c r="D50" s="1" t="n">
+        <v>2488</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>2488</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
@@ -2652,6 +2697,15 @@
       <c r="C51" s="5" t="s">
         <v>152</v>
       </c>
+      <c r="D51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
@@ -2663,6 +2717,15 @@
       <c r="C52" s="5" t="s">
         <v>155</v>
       </c>
+      <c r="D52" s="1" t="n">
+        <v>7088</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>7088</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
@@ -2674,6 +2737,15 @@
       <c r="C53" s="5" t="s">
         <v>158</v>
       </c>
+      <c r="D53" s="1" t="n">
+        <v>4843</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>4843</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
@@ -2685,6 +2757,15 @@
       <c r="C54" s="5" t="s">
         <v>161</v>
       </c>
+      <c r="D54" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
@@ -2696,6 +2777,15 @@
       <c r="C55" s="5" t="s">
         <v>164</v>
       </c>
+      <c r="D55" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
@@ -2707,6 +2797,15 @@
       <c r="C56" s="5" t="s">
         <v>167</v>
       </c>
+      <c r="D56" s="1" t="n">
+        <v>1614</v>
+      </c>
+      <c r="E56" s="1" t="n">
+        <v>1614</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
@@ -2718,6 +2817,15 @@
       <c r="C57" s="5" t="s">
         <v>170</v>
       </c>
+      <c r="D57" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="E57" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
@@ -2728,6 +2836,15 @@
       </c>
       <c r="C58" s="5" t="s">
         <v>173</v>
+      </c>
+      <c r="D58" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="E58" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="F58" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3780,11 +3897,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Dox/Roman_Parsers.xlsx
+++ b/Dox/Roman_Parsers.xlsx
@@ -1680,18 +1680,17 @@
   <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D59" activeCellId="0" sqref="D59"/>
+      <selection pane="topLeft" activeCell="D64" activeCellId="0" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.17857142857143"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2857,6 +2856,15 @@
       <c r="C59" s="5" t="s">
         <v>176</v>
       </c>
+      <c r="D59" s="1" t="n">
+        <v>21059</v>
+      </c>
+      <c r="E59" s="1" t="n">
+        <v>21059</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
@@ -2868,6 +2876,15 @@
       <c r="C60" s="5" t="s">
         <v>179</v>
       </c>
+      <c r="D60" s="1" t="n">
+        <v>35553</v>
+      </c>
+      <c r="E60" s="1" t="n">
+        <v>35555</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
@@ -2879,6 +2896,15 @@
       <c r="C61" s="5" t="s">
         <v>182</v>
       </c>
+      <c r="D61" s="1" t="n">
+        <v>8836</v>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>8836</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
@@ -2890,6 +2916,15 @@
       <c r="C62" s="5" t="s">
         <v>185</v>
       </c>
+      <c r="D62" s="1" t="n">
+        <v>1773</v>
+      </c>
+      <c r="E62" s="1" t="n">
+        <v>1773</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
@@ -2900,6 +2935,15 @@
       </c>
       <c r="C63" s="5" t="s">
         <v>188</v>
+      </c>
+      <c r="D63" s="1" t="n">
+        <v>1724</v>
+      </c>
+      <c r="E63" s="1" t="n">
+        <v>1724</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3897,10 +3941,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
